--- a/FinalResults/NQueen24.xlsx
+++ b/FinalResults/NQueen24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\NQueen24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D63E2B-34B9-4671-97C9-8FD4842199D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C53421-E70E-4A97-A22A-6AA4107335BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -35,11 +35,17 @@
   <si>
     <t>CPP</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,359 +358,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>2.5133278680000002</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.187102349</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.15246485700000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.4903166579999998</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>0.282587382</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>0.309999042</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.6233612869999998</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>0.30050431900000002</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>0.31352348899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.918688656</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>0.34172551099999998</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>0.31082231100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>2.6942537080000002</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>0.34341804399999998</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>0.31368442099999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.6569438380000001</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>0.35434083300000002</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>0.32665486999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>2.660703255</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>0.34474740999999998</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>0.31364252199999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>2.5756378670000002</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>0.35306296399999998</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>0.308644166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>2.5781783659999999</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>0.34987624899999997</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>0.30792314599999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>2.6082547090000001</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>0.34834003600000002</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="1">
         <v>0.315008175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>2.7155789129999999</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>0.35073336900000002</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>0.30893555099999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.6967836649999999</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>0.33730632900000002</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="1">
         <v>0.30991106000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>2.7186525989999999</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>0.34741410900000003</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>0.30870471799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>2.753630534</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="1">
         <v>0.33260889700000001</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="1">
         <v>0.31631196700000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>2.8086685060000001</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>0.36817465300000002</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="1">
         <v>0.31144879800000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>2.621961041</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="1">
         <v>0.34356214400000001</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="1">
         <v>0.319745165</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>2.633740306</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="1">
         <v>0.33859508500000002</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="1">
         <v>0.307567166</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>2.6447107820000002</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>0.32799995300000001</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="1">
         <v>0.306421477</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>2.598588758</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>0.346344928</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="1">
         <v>0.31648362400000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>2.733757341</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>0.34118282</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>0.31243412300000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>2.5869734420000001</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="1">
         <v>0.337066013</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="1">
         <v>0.30880659799999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>2.7454595610000001</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="1">
         <v>0.35079542899999999</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="1">
         <v>0.30854759900000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>2.5958734570000002</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1">
         <v>0.34402194400000002</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="1">
         <v>0.30882374400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.8135805930000002</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="1">
         <v>0.349623723</v>
       </c>
-      <c r="C25">
+      <c r="D25" s="1">
         <v>0.314850992</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.1564012789999998</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="1">
         <v>0.34723496700000001</v>
       </c>
-      <c r="C26">
+      <c r="D26" s="1">
         <v>0.31936764499999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>2.6320924300000001</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="1">
         <v>0.34084244699999999</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="1">
         <v>0.30744689800000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>2.6444709689999999</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="1">
         <v>0.346718833</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="1">
         <v>0.31296093000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>2.5617316130000001</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="1">
         <v>0.34725921199999998</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="1">
         <v>0.31574850100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>2.5565485950000002</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="1">
         <v>0.34638598100000001</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="1">
         <v>0.307211603</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>2.5698276330000001</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="1">
         <v>0.34887737400000002</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="1">
         <v>0.30839513000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>